--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="538">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">Rod</t>
   </si>
   <si>
-    <t xml:space="preserve">ロッド</t>
+    <t xml:space="preserve">魔法杖</t>
   </si>
   <si>
     <t xml:space="preserve">catalyst</t>
@@ -3952,7 +3952,7 @@
         <v>384</v>
       </c>
       <c r="B134" t="s">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>535</v>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="538">
   <si>
     <t xml:space="preserve">id</t>
   </si>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="539">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,1219 +35,1222 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新しい物資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉱石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繊維</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bodyparts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体のパーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fertilizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertilizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肥料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基礎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小道具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肉料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_vegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetable Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野菜料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果物料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケーキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クッキー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヌードル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卵料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ご飯物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スープ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodstuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodstuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穀物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練り粉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きのこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調味料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハーブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スパイス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preserved Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodstuff_raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw Foodstuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未加工食材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飲料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">近接武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長剣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短剣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blunt Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鈍器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polearm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polearm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">棒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scythe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scythe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鎌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martial Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranged Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">射撃武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ammo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">矢弾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crossbow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossbow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロスボウ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throwing Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投擲武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torso Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胴装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頭装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背中装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waist Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腕装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foot Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指輪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neck Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amulet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amulet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首輪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolbelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolbelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ツールベルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンテナ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">照明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装飾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plantpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉢植え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crafter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製作設備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工設備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発電機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マウント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋外用品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">util</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">椅子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィギア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">餌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巻物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古の書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spellbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジャンク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地球儀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鍋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お土産</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請求書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valuable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴重品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アビリティー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ツール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">楽器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触媒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通貨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.24 fix 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新しい物資</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木材</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石材</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉱石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繊維</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyparts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body Parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体のパーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fertilizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertilizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肥料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">床</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基礎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小道具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meat Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肉料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_vegi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetable Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野菜料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">果物料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ケーキ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_cookie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クッキー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_noodle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noodle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヌードル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卵料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ご飯物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_soup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スープ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foodstuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodstuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食材</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">穀物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練り粉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野菜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">果物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">きのこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">調味料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_seasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハーブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スパイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preserved Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存食</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foodstuff_raw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Foodstuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未加工食材</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">飲料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポーション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">酒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">近接武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長剣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短剣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blunt Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鈍器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">棒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scythe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scythe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鎌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martial Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranged Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">射撃武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ammo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">矢弾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crossbow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crossbow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロスボウ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throwing Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投擲武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torso Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胴装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頭装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背中装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waist Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arm Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腕装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foot Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">足装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finger Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指輪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neck Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首装備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amulet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amulet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首輪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toolbelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolbelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ツールベルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightsource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンテナ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">照明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装飾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plantpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant Pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉢植え</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crafter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crafter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">製作設備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工設備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発電機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マウント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋外用品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">util</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">椅子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">扉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィギア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アイテム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">餌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巻物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancientbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古の書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spellbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔法書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">技術書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地図</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジャンク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">globe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地球儀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鍋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お土産</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請求書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valuable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴重品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アビリティー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">楽器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔法杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">触媒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通貨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.24 fix 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
@@ -1728,7 +1731,7 @@
         <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1745,7 +1748,7 @@
         <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1762,7 +1765,7 @@
         <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1779,7 +1782,7 @@
         <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1796,7 +1799,7 @@
         <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1813,7 +1816,7 @@
         <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1830,7 +1833,7 @@
         <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1847,7 +1850,7 @@
         <v>393</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1864,7 +1867,7 @@
         <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1881,7 +1884,7 @@
         <v>393</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1898,7 +1901,7 @@
         <v>393</v>
       </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1932,7 +1935,7 @@
         <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -1949,7 +1952,7 @@
         <v>393</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1966,7 +1969,7 @@
         <v>394</v>
       </c>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -1983,7 +1986,7 @@
         <v>393</v>
       </c>
       <c r="C18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -2000,7 +2003,7 @@
         <v>393</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -2017,7 +2020,7 @@
         <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2034,7 +2037,7 @@
         <v>393</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -2051,7 +2054,7 @@
         <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
@@ -2068,7 +2071,7 @@
         <v>393</v>
       </c>
       <c r="C23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -2085,7 +2088,7 @@
         <v>393</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -2102,7 +2105,7 @@
         <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2119,7 +2122,7 @@
         <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2136,7 +2139,7 @@
         <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -2153,7 +2156,7 @@
         <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -2170,7 +2173,7 @@
         <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2187,7 +2190,7 @@
         <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -2204,7 +2207,7 @@
         <v>399</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -2221,7 +2224,7 @@
         <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -2238,7 +2241,7 @@
         <v>398</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2255,7 +2258,7 @@
         <v>398</v>
       </c>
       <c r="C34" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2272,7 +2275,7 @@
         <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2289,7 +2292,7 @@
         <v>393</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
         <v>101</v>
@@ -2306,7 +2309,7 @@
         <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -2323,7 +2326,7 @@
         <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
@@ -2340,7 +2343,7 @@
         <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D39" t="s">
         <v>110</v>
@@ -2357,7 +2360,7 @@
         <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
@@ -2374,7 +2377,7 @@
         <v>393</v>
       </c>
       <c r="C41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -2391,7 +2394,7 @@
         <v>401</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -2408,7 +2411,7 @@
         <v>394</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D43" t="s">
         <v>122</v>
@@ -2425,7 +2428,7 @@
         <v>393</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -2442,7 +2445,7 @@
         <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -2459,7 +2462,7 @@
         <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -2476,7 +2479,7 @@
         <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D47" t="s">
         <v>131</v>
@@ -2493,7 +2496,7 @@
         <v>402</v>
       </c>
       <c r="C48" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
         <v>135</v>
@@ -2510,7 +2513,7 @@
         <v>401</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2527,7 +2530,7 @@
         <v>401</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2544,7 +2547,7 @@
         <v>393</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D51" t="s">
         <v>144</v>
@@ -2561,7 +2564,7 @@
         <v>393</v>
       </c>
       <c r="C52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -2578,7 +2581,7 @@
         <v>393</v>
       </c>
       <c r="C53" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D53" t="s">
         <v>150</v>
@@ -2595,7 +2598,7 @@
         <v>403</v>
       </c>
       <c r="C54" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2612,7 +2615,7 @@
         <v>393</v>
       </c>
       <c r="C55" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
         <v>156</v>
@@ -2629,7 +2632,7 @@
         <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
         <v>159</v>
@@ -2646,7 +2649,7 @@
         <v>393</v>
       </c>
       <c r="C57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -2663,7 +2666,7 @@
         <v>398</v>
       </c>
       <c r="C58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -2680,7 +2683,7 @@
         <v>398</v>
       </c>
       <c r="C59" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2697,7 +2700,7 @@
         <v>393</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D60" t="s">
         <v>171</v>
@@ -2714,7 +2717,7 @@
         <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
@@ -2731,7 +2734,7 @@
         <v>393</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D62" t="s">
         <v>177</v>
@@ -2748,7 +2751,7 @@
         <v>401</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
         <v>180</v>
@@ -2765,7 +2768,7 @@
         <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s">
         <v>183</v>
@@ -2782,7 +2785,7 @@
         <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s">
         <v>186</v>
@@ -2799,7 +2802,7 @@
         <v>393</v>
       </c>
       <c r="C66" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -2816,7 +2819,7 @@
         <v>402</v>
       </c>
       <c r="C67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
         <v>192</v>
@@ -2833,7 +2836,7 @@
         <v>393</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D68" t="s">
         <v>195</v>
@@ -2850,7 +2853,7 @@
         <v>393</v>
       </c>
       <c r="C69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D69" t="s">
         <v>198</v>
@@ -2867,7 +2870,7 @@
         <v>393</v>
       </c>
       <c r="C70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D70" t="s">
         <v>201</v>
@@ -2884,7 +2887,7 @@
         <v>393</v>
       </c>
       <c r="C71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
         <v>204</v>
@@ -2901,7 +2904,7 @@
         <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -2918,7 +2921,7 @@
         <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
@@ -2935,7 +2938,7 @@
         <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
         <v>213</v>
@@ -2952,7 +2955,7 @@
         <v>393</v>
       </c>
       <c r="C75" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
@@ -2969,7 +2972,7 @@
         <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -2986,7 +2989,7 @@
         <v>393</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D77" t="s">
         <v>222</v>
@@ -3003,7 +3006,7 @@
         <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -3020,7 +3023,7 @@
         <v>393</v>
       </c>
       <c r="C79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D79" t="s">
         <v>228</v>
@@ -3037,7 +3040,7 @@
         <v>393</v>
       </c>
       <c r="C80" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D80" t="s">
         <v>231</v>
@@ -3054,7 +3057,7 @@
         <v>393</v>
       </c>
       <c r="C81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D81" t="s">
         <v>234</v>
@@ -3071,7 +3074,7 @@
         <v>393</v>
       </c>
       <c r="C82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D82" t="s">
         <v>237</v>
@@ -3088,7 +3091,7 @@
         <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D83" t="s">
         <v>240</v>
@@ -3105,7 +3108,7 @@
         <v>393</v>
       </c>
       <c r="C84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3122,7 +3125,7 @@
         <v>393</v>
       </c>
       <c r="C85" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3139,7 +3142,7 @@
         <v>393</v>
       </c>
       <c r="C86" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D86" t="s">
         <v>249</v>
@@ -3156,7 +3159,7 @@
         <v>393</v>
       </c>
       <c r="C87" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3173,7 +3176,7 @@
         <v>393</v>
       </c>
       <c r="C88" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -3190,7 +3193,7 @@
         <v>393</v>
       </c>
       <c r="C89" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
         <v>258</v>
@@ -3207,7 +3210,7 @@
         <v>394</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D90" t="s">
         <v>258</v>
@@ -3224,7 +3227,7 @@
         <v>393</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D91" t="s">
         <v>262</v>
@@ -3241,7 +3244,7 @@
         <v>393</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D92" t="s">
         <v>265</v>
@@ -3258,7 +3261,7 @@
         <v>393</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D93" t="s">
         <v>268</v>
@@ -3275,7 +3278,7 @@
         <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D94" t="s">
         <v>271</v>
@@ -3292,7 +3295,7 @@
         <v>393</v>
       </c>
       <c r="C95" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D95" t="s">
         <v>274</v>
@@ -3309,7 +3312,7 @@
         <v>393</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D96" t="s">
         <v>277</v>
@@ -3326,7 +3329,7 @@
         <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -3343,7 +3346,7 @@
         <v>401</v>
       </c>
       <c r="C98" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D98" t="s">
         <v>283</v>
@@ -3360,7 +3363,7 @@
         <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D99" t="s">
         <v>286</v>
@@ -3377,7 +3380,7 @@
         <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D100" t="s">
         <v>289</v>
@@ -3394,7 +3397,7 @@
         <v>407</v>
       </c>
       <c r="C101" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D101" t="s">
         <v>292</v>
@@ -3411,7 +3414,7 @@
         <v>393</v>
       </c>
       <c r="C102" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D102" t="s">
         <v>295</v>
@@ -3428,7 +3431,7 @@
         <v>408</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D103" t="s">
         <v>298</v>
@@ -3445,7 +3448,7 @@
         <v>393</v>
       </c>
       <c r="C104" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D104" t="s">
         <v>301</v>
@@ -3462,7 +3465,7 @@
         <v>393</v>
       </c>
       <c r="C105" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D105" t="s">
         <v>304</v>
@@ -3479,7 +3482,7 @@
         <v>393</v>
       </c>
       <c r="C106" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D106" t="s">
         <v>307</v>
@@ -3496,7 +3499,7 @@
         <v>393</v>
       </c>
       <c r="C107" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D107" t="s">
         <v>310</v>
@@ -3513,7 +3516,7 @@
         <v>397</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D108" t="s">
         <v>313</v>
@@ -3530,7 +3533,7 @@
         <v>409</v>
       </c>
       <c r="C109" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D109" t="s">
         <v>316</v>
@@ -3547,7 +3550,7 @@
         <v>393</v>
       </c>
       <c r="C110" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D110" t="s">
         <v>319</v>
@@ -3564,7 +3567,7 @@
         <v>394</v>
       </c>
       <c r="C111" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D111" t="s">
         <v>319</v>
@@ -3581,7 +3584,7 @@
         <v>396</v>
       </c>
       <c r="C112" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D112" t="s">
         <v>323</v>
@@ -3598,7 +3601,7 @@
         <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D113" t="s">
         <v>326</v>
@@ -3615,7 +3618,7 @@
         <v>394</v>
       </c>
       <c r="C114" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D114" t="s">
         <v>326</v>
@@ -3632,7 +3635,7 @@
         <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D115" t="s">
         <v>330</v>
@@ -3649,7 +3652,7 @@
         <v>396</v>
       </c>
       <c r="C116" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D116" t="s">
         <v>333</v>
@@ -3666,7 +3669,7 @@
         <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D117" t="s">
         <v>336</v>
@@ -3683,7 +3686,7 @@
         <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D118" t="s">
         <v>339</v>
@@ -3700,7 +3703,7 @@
         <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D119" t="s">
         <v>342</v>
@@ -3717,7 +3720,7 @@
         <v>410</v>
       </c>
       <c r="C120" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D120" t="s">
         <v>345</v>
@@ -3734,7 +3737,7 @@
         <v>393</v>
       </c>
       <c r="C121" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -3751,7 +3754,7 @@
         <v>396</v>
       </c>
       <c r="C122" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D122" t="s">
         <v>351</v>
@@ -3768,7 +3771,7 @@
         <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D123" t="s">
         <v>354</v>
@@ -3785,7 +3788,7 @@
         <v>393</v>
       </c>
       <c r="C124" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D124" t="s">
         <v>357</v>
@@ -3802,7 +3805,7 @@
         <v>393</v>
       </c>
       <c r="C125" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D125" t="s">
         <v>360</v>
@@ -3819,7 +3822,7 @@
         <v>393</v>
       </c>
       <c r="C126" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
@@ -3836,7 +3839,7 @@
         <v>393</v>
       </c>
       <c r="C127" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D127" t="s">
         <v>366</v>
@@ -3853,7 +3856,7 @@
         <v>393</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D128" t="s">
         <v>369</v>
@@ -3870,7 +3873,7 @@
         <v>393</v>
       </c>
       <c r="C129" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D129" t="s">
         <v>372</v>
@@ -3887,7 +3890,7 @@
         <v>409</v>
       </c>
       <c r="C130" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D130" t="s">
         <v>375</v>
@@ -3904,7 +3907,7 @@
         <v>393</v>
       </c>
       <c r="C131" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D131" t="s">
         <v>378</v>
@@ -3921,7 +3924,7 @@
         <v>394</v>
       </c>
       <c r="C132" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D132" t="s">
         <v>378</v>
@@ -3938,7 +3941,7 @@
         <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D133" t="s">
         <v>382</v>
@@ -3952,10 +3955,10 @@
         <v>384</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="C134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D134" t="s">
         <v>385</v>
@@ -3969,10 +3972,10 @@
         <v>387</v>
       </c>
       <c r="B135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C135" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D135" t="s">
         <v>388</v>
@@ -3989,7 +3992,7 @@
         <v>393</v>
       </c>
       <c r="C136" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D136" t="s">
         <v>391</v>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="545">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -981,6 +981,24 @@
   </si>
   <si>
     <t xml:space="preserve">_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">改造道具</t>
   </si>
   <si>
     <t xml:space="preserve">bait</t>
@@ -1728,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1745,10 +1763,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1762,10 +1780,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1779,10 +1797,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1796,10 +1814,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1813,10 +1831,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1830,10 +1848,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1847,10 +1865,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1864,10 +1882,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1881,10 +1899,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1898,10 +1916,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1915,7 +1933,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1932,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -1949,10 +1967,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1966,10 +1984,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -1983,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -2000,10 +2018,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -2017,10 +2035,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2034,10 +2052,10 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -2051,10 +2069,10 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
@@ -2068,10 +2086,10 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -2085,10 +2103,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -2102,10 +2120,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2119,10 +2137,10 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2136,10 +2154,10 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C27" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -2153,10 +2171,10 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -2170,10 +2188,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2187,10 +2205,10 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C30" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -2204,10 +2222,10 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C31" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -2221,10 +2239,10 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -2238,10 +2256,10 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C33" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2255,10 +2273,10 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C34" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2272,10 +2290,10 @@
         <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2289,10 +2307,10 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C36" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D36" t="s">
         <v>101</v>
@@ -2306,10 +2324,10 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -2323,10 +2341,10 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
@@ -2340,10 +2358,10 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D39" t="s">
         <v>110</v>
@@ -2357,10 +2375,10 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
@@ -2374,10 +2392,10 @@
         <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -2391,10 +2409,10 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -2408,10 +2426,10 @@
         <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D43" t="s">
         <v>122</v>
@@ -2425,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -2442,10 +2460,10 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -2459,10 +2477,10 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -2476,10 +2494,10 @@
         <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
         <v>131</v>
@@ -2493,10 +2511,10 @@
         <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
         <v>135</v>
@@ -2510,10 +2528,10 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2527,10 +2545,10 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2544,10 +2562,10 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
         <v>144</v>
@@ -2561,10 +2579,10 @@
         <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -2578,10 +2596,10 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C53" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
         <v>150</v>
@@ -2595,10 +2613,10 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2612,10 +2630,10 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D55" t="s">
         <v>156</v>
@@ -2629,10 +2647,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
         <v>159</v>
@@ -2646,10 +2664,10 @@
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C57" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -2663,10 +2681,10 @@
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C58" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -2680,10 +2698,10 @@
         <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2697,10 +2715,10 @@
         <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
         <v>171</v>
@@ -2714,10 +2732,10 @@
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
@@ -2731,10 +2749,10 @@
         <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C62" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D62" t="s">
         <v>177</v>
@@ -2748,10 +2766,10 @@
         <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
         <v>180</v>
@@ -2765,10 +2783,10 @@
         <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C64" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D64" t="s">
         <v>183</v>
@@ -2782,10 +2800,10 @@
         <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D65" t="s">
         <v>186</v>
@@ -2799,10 +2817,10 @@
         <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -2816,10 +2834,10 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D67" t="s">
         <v>192</v>
@@ -2833,10 +2851,10 @@
         <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C68" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
         <v>195</v>
@@ -2850,10 +2868,10 @@
         <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C69" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D69" t="s">
         <v>198</v>
@@ -2867,10 +2885,10 @@
         <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C70" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s">
         <v>201</v>
@@ -2884,10 +2902,10 @@
         <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C71" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D71" t="s">
         <v>204</v>
@@ -2901,10 +2919,10 @@
         <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -2918,10 +2936,10 @@
         <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
@@ -2935,10 +2953,10 @@
         <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D74" t="s">
         <v>213</v>
@@ -2952,10 +2970,10 @@
         <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
@@ -2969,10 +2987,10 @@
         <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C76" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -2986,10 +3004,10 @@
         <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C77" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
         <v>222</v>
@@ -3003,10 +3021,10 @@
         <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C78" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -3020,10 +3038,10 @@
         <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C79" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D79" t="s">
         <v>228</v>
@@ -3037,10 +3055,10 @@
         <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D80" t="s">
         <v>231</v>
@@ -3054,10 +3072,10 @@
         <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C81" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
         <v>234</v>
@@ -3071,10 +3089,10 @@
         <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C82" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D82" t="s">
         <v>237</v>
@@ -3088,10 +3106,10 @@
         <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D83" t="s">
         <v>240</v>
@@ -3105,10 +3123,10 @@
         <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3122,10 +3140,10 @@
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C85" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3139,10 +3157,10 @@
         <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C86" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D86" t="s">
         <v>249</v>
@@ -3156,10 +3174,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3173,10 +3191,10 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C88" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -3190,10 +3208,10 @@
         <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D89" t="s">
         <v>258</v>
@@ -3207,10 +3225,10 @@
         <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D90" t="s">
         <v>258</v>
@@ -3224,10 +3242,10 @@
         <v>261</v>
       </c>
       <c r="B91" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C91" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D91" t="s">
         <v>262</v>
@@ -3241,10 +3259,10 @@
         <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C92" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D92" t="s">
         <v>265</v>
@@ -3258,10 +3276,10 @@
         <v>267</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D93" t="s">
         <v>268</v>
@@ -3275,10 +3293,10 @@
         <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C94" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D94" t="s">
         <v>271</v>
@@ -3292,10 +3310,10 @@
         <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C95" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D95" t="s">
         <v>274</v>
@@ -3309,10 +3327,10 @@
         <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D96" t="s">
         <v>277</v>
@@ -3326,10 +3344,10 @@
         <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C97" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -3343,10 +3361,10 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D98" t="s">
         <v>283</v>
@@ -3360,10 +3378,10 @@
         <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D99" t="s">
         <v>286</v>
@@ -3377,10 +3395,10 @@
         <v>288</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D100" t="s">
         <v>289</v>
@@ -3394,10 +3412,10 @@
         <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C101" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D101" t="s">
         <v>292</v>
@@ -3411,10 +3429,10 @@
         <v>294</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C102" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D102" t="s">
         <v>295</v>
@@ -3428,10 +3446,10 @@
         <v>297</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C103" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D103" t="s">
         <v>298</v>
@@ -3445,10 +3463,10 @@
         <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D104" t="s">
         <v>301</v>
@@ -3462,10 +3480,10 @@
         <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C105" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D105" t="s">
         <v>304</v>
@@ -3479,10 +3497,10 @@
         <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D106" t="s">
         <v>307</v>
@@ -3496,10 +3514,10 @@
         <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C107" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D107" t="s">
         <v>310</v>
@@ -3513,10 +3531,10 @@
         <v>312</v>
       </c>
       <c r="B108" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C108" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D108" t="s">
         <v>313</v>
@@ -3530,10 +3548,10 @@
         <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C109" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D109" t="s">
         <v>316</v>
@@ -3547,10 +3565,10 @@
         <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C110" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D110" t="s">
         <v>319</v>
@@ -3564,10 +3582,10 @@
         <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C111" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D111" t="s">
         <v>319</v>
@@ -3581,10 +3599,7 @@
         <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
-      </c>
-      <c r="C112" t="s">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
         <v>323</v>
@@ -3598,10 +3613,7 @@
         <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
-      </c>
-      <c r="C113" t="s">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>326</v>
@@ -3615,50 +3627,50 @@
         <v>328</v>
       </c>
       <c r="B114" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C114" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D114" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E114" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E115" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" t="s">
+        <v>400</v>
+      </c>
+      <c r="C116" t="s">
+        <v>523</v>
+      </c>
+      <c r="D116" t="s">
         <v>332</v>
       </c>
-      <c r="B116" t="s">
-        <v>396</v>
-      </c>
-      <c r="C116" t="s">
-        <v>519</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>333</v>
-      </c>
-      <c r="E116" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="117">
@@ -3666,10 +3678,10 @@
         <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C117" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D117" t="s">
         <v>336</v>
@@ -3683,10 +3695,10 @@
         <v>338</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C118" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D118" t="s">
         <v>339</v>
@@ -3700,10 +3712,10 @@
         <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C119" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D119" t="s">
         <v>342</v>
@@ -3717,10 +3729,10 @@
         <v>344</v>
       </c>
       <c r="B120" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C120" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D120" t="s">
         <v>345</v>
@@ -3734,10 +3746,10 @@
         <v>347</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -3751,10 +3763,10 @@
         <v>350</v>
       </c>
       <c r="B122" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C122" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D122" t="s">
         <v>351</v>
@@ -3768,10 +3780,10 @@
         <v>353</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C123" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D123" t="s">
         <v>354</v>
@@ -3785,10 +3797,10 @@
         <v>356</v>
       </c>
       <c r="B124" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D124" t="s">
         <v>357</v>
@@ -3802,10 +3814,10 @@
         <v>359</v>
       </c>
       <c r="B125" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C125" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D125" t="s">
         <v>360</v>
@@ -3819,10 +3831,10 @@
         <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C126" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
@@ -3836,10 +3848,10 @@
         <v>365</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C127" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D127" t="s">
         <v>366</v>
@@ -3853,10 +3865,10 @@
         <v>368</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C128" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D128" t="s">
         <v>369</v>
@@ -3870,10 +3882,10 @@
         <v>371</v>
       </c>
       <c r="B129" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C129" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D129" t="s">
         <v>372</v>
@@ -3887,10 +3899,10 @@
         <v>374</v>
       </c>
       <c r="B130" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D130" t="s">
         <v>375</v>
@@ -3904,10 +3916,10 @@
         <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C131" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D131" t="s">
         <v>378</v>
@@ -3921,50 +3933,50 @@
         <v>380</v>
       </c>
       <c r="B132" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="C132" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D132" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E132" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D133" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E133" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>386</v>
+      </c>
+      <c r="B134" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" t="s">
+        <v>540</v>
+      </c>
+      <c r="D134" t="s">
         <v>384</v>
       </c>
-      <c r="B134" t="s">
-        <v>411</v>
-      </c>
-      <c r="C134" t="s">
-        <v>536</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>385</v>
-      </c>
-      <c r="E134" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="135">
@@ -3972,10 +3984,10 @@
         <v>387</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D135" t="s">
         <v>388</v>
@@ -3989,16 +4001,50 @@
         <v>390</v>
       </c>
       <c r="B136" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="C136" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D136" t="s">
         <v>391</v>
       </c>
       <c r="E136" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>393</v>
+      </c>
+      <c r="B137" t="s">
+        <v>418</v>
+      </c>
+      <c r="C137" t="s">
+        <v>543</v>
+      </c>
+      <c r="D137" t="s">
+        <v>394</v>
+      </c>
+      <c r="E137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>396</v>
+      </c>
+      <c r="B138" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" t="s">
+        <v>544</v>
+      </c>
+      <c r="D138" t="s">
+        <v>397</v>
+      </c>
+      <c r="E138" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">melee</t>
   </si>
   <si>
-    <t xml:space="preserve">Melee</t>
+    <t xml:space="preserve">Melee Weapon</t>
   </si>
   <si>
     <t xml:space="preserve">近接武器</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="551">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t xml:space="preserve">スープ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランチ</t>
   </si>
   <si>
     <t xml:space="preserve">foodstuff</t>
@@ -1755,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1772,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1789,10 +1798,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1806,10 +1815,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1823,10 +1832,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1840,10 +1849,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1857,10 +1866,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1874,10 +1883,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1891,10 +1900,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1908,10 +1917,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1925,10 +1934,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1942,7 +1951,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1959,10 +1968,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -1976,10 +1985,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1993,10 +2002,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -2010,10 +2019,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -2027,10 +2036,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -2044,10 +2053,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2061,10 +2070,10 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -2078,10 +2087,10 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
@@ -2095,10 +2104,10 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -2112,10 +2121,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -2129,10 +2138,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2146,10 +2155,10 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C26" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2163,10 +2172,10 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -2180,10 +2189,10 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -2197,10 +2206,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2214,10 +2223,10 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -2231,10 +2240,10 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -2248,10 +2257,10 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -2265,10 +2274,10 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2282,10 +2291,10 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2299,10 +2308,10 @@
         <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2316,10 +2325,7 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>101</v>
@@ -2333,10 +2339,10 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -2350,10 +2356,10 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
@@ -2367,10 +2373,10 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C39" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D39" t="s">
         <v>110</v>
@@ -2384,10 +2390,10 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
@@ -2401,10 +2407,10 @@
         <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -2418,10 +2424,10 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -2435,10 +2441,10 @@
         <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D43" t="s">
         <v>122</v>
@@ -2452,10 +2458,10 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -2469,10 +2475,10 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C45" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -2486,10 +2492,10 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -2503,33 +2509,33 @@
         <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" t="s">
+        <v>463</v>
+      </c>
+      <c r="D48" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
-        <v>408</v>
-      </c>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>135</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49">
@@ -2537,10 +2543,10 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2554,10 +2560,10 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2571,10 +2577,10 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D51" t="s">
         <v>144</v>
@@ -2588,10 +2594,10 @@
         <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -2605,10 +2611,10 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C53" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D53" t="s">
         <v>150</v>
@@ -2622,10 +2628,10 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2639,10 +2645,10 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D55" t="s">
         <v>156</v>
@@ -2656,10 +2662,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D56" t="s">
         <v>159</v>
@@ -2673,10 +2679,10 @@
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -2690,10 +2696,10 @@
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C58" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -2707,10 +2713,10 @@
         <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2724,10 +2730,10 @@
         <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D60" t="s">
         <v>171</v>
@@ -2741,10 +2747,10 @@
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
@@ -2758,10 +2764,10 @@
         <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D62" t="s">
         <v>177</v>
@@ -2775,10 +2781,10 @@
         <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D63" t="s">
         <v>180</v>
@@ -2792,10 +2798,10 @@
         <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D64" t="s">
         <v>183</v>
@@ -2809,10 +2815,10 @@
         <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D65" t="s">
         <v>186</v>
@@ -2826,10 +2832,10 @@
         <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C66" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -2843,10 +2849,10 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C67" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D67" t="s">
         <v>192</v>
@@ -2860,10 +2866,10 @@
         <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D68" t="s">
         <v>195</v>
@@ -2877,10 +2883,10 @@
         <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C69" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D69" t="s">
         <v>198</v>
@@ -2894,10 +2900,10 @@
         <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C70" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
         <v>201</v>
@@ -2911,10 +2917,10 @@
         <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D71" t="s">
         <v>204</v>
@@ -2928,10 +2934,10 @@
         <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C72" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -2945,10 +2951,10 @@
         <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
@@ -2962,10 +2968,10 @@
         <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C74" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
         <v>213</v>
@@ -2979,10 +2985,10 @@
         <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C75" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
@@ -2996,10 +3002,10 @@
         <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -3013,10 +3019,10 @@
         <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C77" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D77" t="s">
         <v>222</v>
@@ -3030,10 +3036,10 @@
         <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C78" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -3047,10 +3053,10 @@
         <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C79" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D79" t="s">
         <v>228</v>
@@ -3064,10 +3070,10 @@
         <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C80" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D80" t="s">
         <v>231</v>
@@ -3081,10 +3087,10 @@
         <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C81" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
         <v>234</v>
@@ -3098,10 +3104,10 @@
         <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D82" t="s">
         <v>237</v>
@@ -3115,10 +3121,10 @@
         <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D83" t="s">
         <v>240</v>
@@ -3132,10 +3138,10 @@
         <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C84" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3149,10 +3155,10 @@
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C85" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3166,10 +3172,10 @@
         <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D86" t="s">
         <v>249</v>
@@ -3183,10 +3189,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3200,10 +3206,10 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C88" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -3217,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C89" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D89" t="s">
         <v>258</v>
@@ -3234,33 +3240,33 @@
         <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" t="s">
+        <v>505</v>
+      </c>
+      <c r="D91" t="s">
         <v>261</v>
       </c>
-      <c r="B91" t="s">
-        <v>399</v>
-      </c>
-      <c r="C91" t="s">
-        <v>503</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>262</v>
-      </c>
-      <c r="E91" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="92">
@@ -3268,10 +3274,10 @@
         <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C92" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D92" t="s">
         <v>265</v>
@@ -3285,10 +3291,10 @@
         <v>267</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C93" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
         <v>268</v>
@@ -3302,10 +3308,10 @@
         <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C94" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D94" t="s">
         <v>271</v>
@@ -3319,10 +3325,10 @@
         <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C95" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D95" t="s">
         <v>274</v>
@@ -3336,10 +3342,10 @@
         <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C96" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D96" t="s">
         <v>277</v>
@@ -3353,10 +3359,10 @@
         <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C97" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -3370,10 +3376,10 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C98" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D98" t="s">
         <v>283</v>
@@ -3387,10 +3393,10 @@
         <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C99" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D99" t="s">
         <v>286</v>
@@ -3404,10 +3410,10 @@
         <v>288</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D100" t="s">
         <v>289</v>
@@ -3421,10 +3427,10 @@
         <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C101" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D101" t="s">
         <v>292</v>
@@ -3438,10 +3444,10 @@
         <v>294</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D102" t="s">
         <v>295</v>
@@ -3455,10 +3461,10 @@
         <v>297</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C103" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D103" t="s">
         <v>298</v>
@@ -3472,10 +3478,10 @@
         <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C104" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s">
         <v>301</v>
@@ -3489,10 +3495,10 @@
         <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C105" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D105" t="s">
         <v>304</v>
@@ -3506,10 +3512,10 @@
         <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D106" t="s">
         <v>307</v>
@@ -3523,10 +3529,10 @@
         <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C107" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D107" t="s">
         <v>310</v>
@@ -3540,10 +3546,10 @@
         <v>312</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C108" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D108" t="s">
         <v>313</v>
@@ -3557,10 +3563,10 @@
         <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C109" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D109" t="s">
         <v>316</v>
@@ -3574,10 +3580,10 @@
         <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C110" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D110" t="s">
         <v>319</v>
@@ -3591,33 +3597,33 @@
         <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C111" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E111" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" t="s">
+        <v>525</v>
+      </c>
+      <c r="D112" t="s">
         <v>322</v>
       </c>
-      <c r="B112" t="s">
-        <v>416</v>
-      </c>
-      <c r="C112" t="s">
-        <v>523</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>323</v>
-      </c>
-      <c r="E112" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="113">
@@ -3625,10 +3631,10 @@
         <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C113" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D113" t="s">
         <v>326</v>
@@ -3642,10 +3648,10 @@
         <v>328</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C114" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D114" t="s">
         <v>329</v>
@@ -3659,10 +3665,10 @@
         <v>331</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C115" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D115" t="s">
         <v>332</v>
@@ -3676,33 +3682,33 @@
         <v>334</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E116" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" t="s">
+        <v>529</v>
+      </c>
+      <c r="D117" t="s">
         <v>335</v>
       </c>
-      <c r="B117" t="s">
-        <v>399</v>
-      </c>
-      <c r="C117" t="s">
-        <v>527</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>336</v>
-      </c>
-      <c r="E117" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="118">
@@ -3713,7 +3719,7 @@
         <v>402</v>
       </c>
       <c r="C118" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D118" t="s">
         <v>339</v>
@@ -3727,10 +3733,10 @@
         <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C119" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D119" t="s">
         <v>342</v>
@@ -3744,10 +3750,10 @@
         <v>344</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C120" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
         <v>345</v>
@@ -3761,10 +3767,10 @@
         <v>347</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -3778,10 +3784,10 @@
         <v>350</v>
       </c>
       <c r="B122" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D122" t="s">
         <v>351</v>
@@ -3795,10 +3801,10 @@
         <v>353</v>
       </c>
       <c r="B123" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C123" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D123" t="s">
         <v>354</v>
@@ -3815,7 +3821,7 @@
         <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D124" t="s">
         <v>357</v>
@@ -3829,10 +3835,10 @@
         <v>359</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D125" t="s">
         <v>360</v>
@@ -3846,10 +3852,10 @@
         <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
@@ -3863,10 +3869,10 @@
         <v>365</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C127" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D127" t="s">
         <v>366</v>
@@ -3880,10 +3886,10 @@
         <v>368</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C128" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D128" t="s">
         <v>369</v>
@@ -3897,10 +3903,10 @@
         <v>371</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C129" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D129" t="s">
         <v>372</v>
@@ -3914,10 +3920,10 @@
         <v>374</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C130" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D130" t="s">
         <v>375</v>
@@ -3931,10 +3937,10 @@
         <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D131" t="s">
         <v>378</v>
@@ -3948,10 +3954,10 @@
         <v>380</v>
       </c>
       <c r="B132" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C132" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D132" t="s">
         <v>381</v>
@@ -3965,10 +3971,10 @@
         <v>383</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C133" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D133" t="s">
         <v>384</v>
@@ -3982,33 +3988,33 @@
         <v>386</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>389</v>
+      </c>
+      <c r="B135" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" t="s">
+        <v>546</v>
+      </c>
+      <c r="D135" t="s">
         <v>387</v>
       </c>
-      <c r="B135" t="s">
-        <v>399</v>
-      </c>
-      <c r="C135" t="s">
-        <v>544</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>388</v>
-      </c>
-      <c r="E135" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="136">
@@ -4016,10 +4022,10 @@
         <v>390</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D136" t="s">
         <v>391</v>
@@ -4033,10 +4039,10 @@
         <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C137" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D137" t="s">
         <v>394</v>
@@ -4050,16 +4056,33 @@
         <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C138" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D138" t="s">
         <v>397</v>
       </c>
       <c r="E138" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>399</v>
+      </c>
+      <c r="B139" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" t="s">
+        <v>550</v>
+      </c>
+      <c r="D139" t="s">
+        <v>400</v>
+      </c>
+      <c r="E139" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
